--- a/biology/Écologie/Source_de_carbone_(écologie)/Source_de_carbone_(écologie).xlsx
+++ b/biology/Écologie/Source_de_carbone_(écologie)/Source_de_carbone_(écologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Source_de_carbone_(%C3%A9cologie)</t>
+          <t>Source_de_carbone_(écologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">D'un point de vue écologique, une source de carbone ou source CO2 est un élément (ou un processus sur cet élément) libérant du dioxyde de carbone dans l'atmosphère.
 Par exemple, l'activité humaine produit des gaz à effet de serre par l'utilisation de sources de carbone fossiles (charbon, gaz, pétrole). 
